--- a/DMSNewVSale_2025-12-22_18-45.xlsx
+++ b/DMSNewVSale_2025-12-22_18-45.xlsx
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>70.0000</t>
+  </si>
+  <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
@@ -3086,7 +3095,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3096,11 +3105,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>11</v>
@@ -3112,14 +3121,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3129,11 +3138,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>11</v>
@@ -3145,14 +3154,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3178,14 +3187,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3211,14 +3220,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3235,7 +3244,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3261,14 +3270,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3277,14 +3286,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3294,14 +3303,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,14 +3336,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3350,7 +3359,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3360,14 +3369,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3376,14 +3385,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3393,14 +3402,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3409,14 +3418,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3426,11 +3435,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>11</v>
@@ -3442,14 +3451,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3459,11 +3468,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>11</v>
@@ -3482,7 +3491,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3492,11 +3501,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>11</v>
@@ -3508,14 +3517,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3525,11 +3534,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>11</v>
@@ -3541,14 +3550,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3558,11 +3567,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>11</v>
@@ -3574,14 +3583,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3591,11 +3600,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>11</v>
@@ -3607,14 +3616,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3624,11 +3633,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>11</v>
@@ -3647,7 +3656,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3657,51 +3666,84 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>224</v>
       </c>
-      <c t="s" r="Q77" s="12">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>225</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>101</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>226</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="78" ht="25.5" customHeight="1">
-      <c r="N78" s="13">
-        <v>4051.4450000000002</v>
-      </c>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>225</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>226</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>227</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+    <row r="79" ht="26.25" customHeight="1">
+      <c r="N79" s="13">
+        <v>4246.4449999999997</v>
+      </c>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>228</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>229</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>230</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4065,10 +4107,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
